--- a/Misc/Measurements and calculations/Component prize cost per unit EHSB.xlsx
+++ b/Misc/Measurements and calculations/Component prize cost per unit EHSB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb18673bf6d29142/Documents/GitHub/Bachelor-Nordic_Semi/Misc/Measurements and calculations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\OneDrive\Documents\GitHub\Bachelor-Nordic_Semi\Misc\Measurements and calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="8" documentId="8_{F17ECF6F-2C1C-462C-A5B5-1550CC511603}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{D2E16566-EBE7-4AAC-B608-F885C38EFDE6}"/>
@@ -609,12 +609,6 @@
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -632,16 +626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -651,6 +636,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -660,16 +649,27 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,7 +993,7 @@
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="A30" sqref="A30:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1003,935 +1003,935 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F3" s="5"/>
-      <c r="G3" s="18"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23" t="s">
+      <c r="A4" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24">
+      <c r="G4" s="41"/>
+      <c r="H4" s="19">
         <f>SUM(B6:B27)</f>
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="25"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="26"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="26"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="26"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="21"/>
       <c r="J7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="26"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="21"/>
       <c r="J8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="26"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="21"/>
       <c r="J9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="26"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>6</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="26"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="26"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="26"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="26"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="26"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="26"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="26"/>
-      <c r="J17" s="19"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="21"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="26"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="26"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="26"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="26"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="1">
         <v>2</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="26"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="26"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="26"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="4">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="26"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
-        <v>1</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="26"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="2">
         <v>2</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="26"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="31"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="32"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="25"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="26"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29"/>
     </row>
     <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23" t="s">
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24">
+      <c r="G32" s="41"/>
+      <c r="H32" s="19">
         <f>SUM(B34:B55)</f>
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="25"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="20"/>
+      <c r="B33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="26"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="1">
         <v>3</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="26"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="3">
-        <v>1</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="26"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="3">
-        <v>1</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="26"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="26"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="3">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="26"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="1">
         <v>6</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="26"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="3">
-        <v>1</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="26"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="1">
         <v>3</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="26"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="3">
-        <v>1</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="26"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="4">
-        <v>1</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="26"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="1">
         <v>2</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="26"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="3">
-        <v>1</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="26"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="3">
-        <v>1</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="26"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="4">
-        <v>1</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="26"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="4">
-        <v>1</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="26"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="4">
-        <v>1</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="26"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="1">
         <v>2</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="4" t="s">
+      <c r="C50" s="1"/>
+      <c r="D50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="26"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="3">
-        <v>1</v>
-      </c>
-      <c r="C51" s="4" t="s">
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="26"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="4">
-        <v>1</v>
-      </c>
-      <c r="C52" s="4" t="s">
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="26"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="4">
-        <v>1</v>
-      </c>
-      <c r="C53" s="4" t="s">
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="26"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="2">
         <v>2</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="26"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="25"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="26"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="21"/>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="37"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
